--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B96F95-03BB-44DB-98B5-962C95C0F740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1844,87 +1845,6 @@
   <si>
     <t>右靠左補空，大寫英數字，不得填寫中文</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>扣款人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ID+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>郵局存款別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(POSCDE)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>戶號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>帳號碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(2)
-PS.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>帳號碼可能為空白</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>會計日期</t>
@@ -1999,15 +1919,96 @@
  郵局 : 003 + ReturnCode(2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>帳號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>扣款人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>郵局存款別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(POSCDE)+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>戶號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>帳號碼可能為空白</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2176,6 +2177,12 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2310,7 +2317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2499,11 +2506,14 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2594,6 +2604,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2629,6 +2656,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2804,10 +2848,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3023,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3061,7 +3105,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
@@ -3081,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -3101,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="81">
@@ -3121,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3208,7 +3252,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>54</v>
@@ -3217,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3339,7 +3383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3404,11 +3448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3794,8 +3838,8 @@
       <c r="G17" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="38" t="s">
-        <v>194</v>
+      <c r="H17" s="63" t="s">
+        <v>202</v>
       </c>
       <c r="I17" s="27"/>
     </row>
@@ -3922,7 +3966,7 @@
         <v>122</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I22" s="27"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B96F95-03BB-44DB-98B5-962C95C0F740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0167DDB-FFBE-4225-B066-1B5B45040E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>KeyID</t>
-  </si>
-  <si>
-    <t>右靠左補空，大寫英數字，不得填寫中文(扣款人ID+郵局存款別(POSCDE)+戶號)預計補2位帳號碼</t>
   </si>
   <si>
     <t>MediaDate Desc</t>
@@ -1999,6 +1996,9 @@
       <t>帳號碼可能為空白</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>右靠左補空，大寫英數字，不得填寫中文(預計補2位帳號碼+扣款人ID+郵局存款別(POSCDE)+戶號)</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2333,10 +2333,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2348,9 +2348,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2363,9 +2360,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2474,6 +2468,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2506,9 +2503,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2851,26 +2845,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
@@ -2882,80 +2876,80 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2974,397 +2968,397 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>8</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>6</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>7</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="178.2">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>2</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="17">
+        <v>14</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="64.8">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48.6">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+    <row r="17" spans="1:7" ht="32.4">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="21">
+        <v>8</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="17">
+        <v>14</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="48.6">
+      <c r="A21" s="17">
+        <v>14</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="17">
+        <v>20</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>15</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="17">
+        <v>20</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>16</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="17">
+        <v>8</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>17</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="19">
-        <v>14</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" ht="64.8">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48.6">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32.4">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="19">
-        <v>3</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="81">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>18</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>19</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17">
+        <v>20</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="21">
+        <v>6</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17">
         <v>21</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="B28" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17">
         <v>22</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="23">
-        <v>8</v>
-      </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="19">
-        <v>14</v>
-      </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" ht="48.6">
-      <c r="A21" s="19">
-        <v>14</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="19">
-        <v>20</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>15</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="19">
-        <v>20</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>16</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="19">
-        <v>8</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>17</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="B29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>18</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>19</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>20</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="23">
-        <v>6</v>
-      </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>21</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
-        <v>22</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="23">
-        <v>6</v>
-      </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3423,10 +3417,10 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3451,7 +3445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -3469,994 +3463,994 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48.6">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="1:9" ht="64.2">
+      <c r="A5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="33">
+        <v>1</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="32.4">
+      <c r="A7" s="33">
+        <v>2</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="48.6">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="36">
+        <v>846</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" ht="48.6">
+      <c r="A9" s="33">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.8">
+      <c r="A10" s="33">
+        <v>5</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="33">
+        <v>6</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="33">
+        <v>17</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="33">
+        <v>7</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="32.4">
+      <c r="A13" s="60">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="55"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="48.6">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="33">
+        <v>9</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" ht="48.6">
+      <c r="A16" s="33">
+        <v>10</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" ht="81">
+      <c r="A17" s="33">
+        <v>11</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="60" t="s">
+      <c r="H17" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="129">
+      <c r="A18" s="33">
+        <v>12</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="33">
+        <v>75</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="33">
+        <v>13</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="33">
+        <v>76</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" ht="129.6">
+      <c r="A20" s="33">
+        <v>14</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="33">
+        <v>77</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" ht="64.8">
+      <c r="A21" s="33">
+        <v>15</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="33">
+        <v>78</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" ht="317.39999999999998">
+      <c r="A22" s="33">
+        <v>16</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.8">
+      <c r="A23" s="33">
+        <v>17</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="33">
+        <v>18</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.4">
+      <c r="A25" s="33">
+        <v>19</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="33">
+        <v>20</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" ht="64.2">
+      <c r="A32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="29"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="64.2">
-      <c r="A5" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D32" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E32" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="41">
+        <v>1</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="35">
+      <c r="C33" s="41">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="D33" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="35">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="32.4">
-      <c r="A7" s="35">
+      <c r="E33" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="41">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="G33" s="41">
+        <v>2</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="41">
+        <v>2</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="41">
+        <v>2</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="35">
-        <v>2</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="38" t="s">
+      <c r="E34" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="44">
+        <v>3</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" ht="48.6">
-      <c r="A8" s="35">
-        <v>3</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="D35" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="37" t="s">
+      <c r="E35" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="41">
+        <v>846</v>
+      </c>
+      <c r="G35" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="38">
-        <v>846</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="H35" s="43"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="32.4">
+      <c r="A36" s="44">
+        <v>4</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="48.6">
-      <c r="A9" s="35">
-        <v>4</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="39" t="s">
+      <c r="D36" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="37" t="s">
+      <c r="E36" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G36" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="43"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="44">
+        <v>5</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="41">
+        <v>6</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.8">
-      <c r="A10" s="35">
-        <v>5</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="F38" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="43"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="41">
+        <v>7</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="35">
-        <v>6</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="35">
-        <v>17</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="35">
-        <v>7</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="32.4">
-      <c r="A13" s="61">
+      <c r="E39" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="48.6">
+      <c r="A40" s="41">
         <v>8</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" ht="48.6">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="37" t="s">
+      <c r="B40" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="41">
+        <v>9</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="35">
-        <v>9</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" ht="48.6">
-      <c r="A16" s="35">
+      <c r="C41" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="43"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" ht="48.6">
+      <c r="A42" s="41">
         <v>10</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" ht="81">
-      <c r="A17" s="35">
+      <c r="B42" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="41">
+        <v>0</v>
+      </c>
+      <c r="G42" s="41">
+        <v>0</v>
+      </c>
+      <c r="H42" s="43"/>
+      <c r="I42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="48.6">
+      <c r="A43" s="41">
         <v>11</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="129">
-      <c r="A18" s="35">
+      <c r="B43" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="41">
+        <v>0</v>
+      </c>
+      <c r="G43" s="41">
+        <v>0</v>
+      </c>
+      <c r="H43" s="43"/>
+      <c r="I43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="41">
         <v>12</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="35">
-        <v>75</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="35">
-        <v>13</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="35">
-        <v>76</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" ht="129.6">
-      <c r="A20" s="35">
-        <v>14</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="35">
-        <v>77</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" ht="64.8">
-      <c r="A21" s="35">
-        <v>15</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="35">
-        <v>78</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" ht="317.39999999999998">
-      <c r="A22" s="35">
-        <v>16</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" ht="31.8">
-      <c r="A23" s="35">
-        <v>17</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="35">
-        <v>18</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" ht="32.4">
-      <c r="A25" s="35">
-        <v>19</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="35">
-        <v>20</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" ht="64.2">
-      <c r="A32" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="43">
-        <v>1</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="43">
-        <v>1</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="44" t="s">
+      <c r="B44" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="43">
-        <v>2</v>
-      </c>
-      <c r="G33" s="43">
-        <v>2</v>
-      </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="43">
-        <v>2</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="43">
-        <v>2</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="46">
-        <v>3</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="43">
-        <v>846</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" ht="32.4">
-      <c r="A36" s="46">
-        <v>4</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="46">
-        <v>5</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="43">
-        <v>6</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="27"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="43">
-        <v>7</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="1:9" ht="48.6">
-      <c r="A40" s="43">
-        <v>8</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="43">
-        <v>9</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" ht="48.6">
-      <c r="A42" s="43">
-        <v>10</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="43">
-        <v>0</v>
-      </c>
-      <c r="G42" s="43">
-        <v>0</v>
-      </c>
-      <c r="H42" s="45"/>
-      <c r="I42" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="48.6">
-      <c r="A43" s="43">
-        <v>11</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="43">
-        <v>12</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="45"/>
-      <c r="I44" s="27"/>
+      <c r="G44" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="43"/>
+      <c r="I44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0167DDB-FFBE-4225-B066-1B5B45040E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D9FB2B-10DA-4754-B22B-9A7B4E8315E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
@@ -1999,6 +1995,9 @@
   </si>
   <si>
     <t>右靠左補空，大寫英數字，不得填寫中文(預計補2位帳號碼+扣款人ID+郵局存款別(POSCDE)+戶號)</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -2523,9 +2522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2563,9 +2562,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2598,26 +2597,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2650,26 +2632,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2845,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2879,7 +2844,7 @@
       <c r="A2" s="51"/>
       <c r="B2" s="52"/>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2972,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -2990,7 +2955,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -3008,7 +2973,7 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -3026,7 +2991,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -3044,7 +3009,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="178.2">
+    <row r="13" spans="1:7" ht="237.6">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -3061,10 +3026,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -3072,7 +3037,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>36</v>
@@ -3082,7 +3047,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="64.8">
+    <row r="15" spans="1:7" ht="79.2">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -3099,10 +3064,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48.6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="59.4">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -3119,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39.6">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -3139,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="81">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="99">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -3159,10 +3124,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.8">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -3180,7 +3145,7 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8">
       <c r="A20" s="17">
         <v>12</v>
       </c>
@@ -3198,7 +3163,7 @@
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" ht="48.6">
+    <row r="21" spans="1:7" ht="59.4">
       <c r="A21" s="17">
         <v>14</v>
       </c>
@@ -3206,7 +3171,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>37</v>
@@ -3215,10 +3180,10 @@
         <v>20</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8">
       <c r="A22" s="17">
         <v>15</v>
       </c>
@@ -3238,7 +3203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8">
       <c r="A23" s="17">
         <v>16</v>
       </c>
@@ -3246,7 +3211,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>54</v>
@@ -3255,10 +3220,10 @@
         <v>8</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8">
       <c r="A24" s="17">
         <v>17</v>
       </c>
@@ -3275,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8">
       <c r="A25" s="17">
         <v>18</v>
       </c>
@@ -3292,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8">
       <c r="A26" s="17">
         <v>19</v>
       </c>
@@ -3303,57 +3268,57 @@
         <v>67</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="E26" s="21"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8">
       <c r="A27" s="17">
         <v>20</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="E27" s="21">
         <v>6</v>
       </c>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="17">
         <v>21</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="D28" s="23" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="E28" s="21"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8">
       <c r="A29" s="17">
         <v>22</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="D29" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="21">
         <v>6</v>
@@ -3417,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3464,7 +3429,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="48.6">
       <c r="A1" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -3474,12 +3439,12 @@
       <c r="G1" s="58"/>
       <c r="H1" s="25"/>
       <c r="I1" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -3492,7 +3457,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -3516,28 +3481,28 @@
     </row>
     <row r="5" spans="1:9" ht="64.2">
       <c r="A5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="H5" s="32" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="I5" s="25"/>
     </row>
@@ -3546,22 +3511,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="33">
         <v>1</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>95</v>
-      </c>
       <c r="G6" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="25"/>
@@ -3571,22 +3536,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="33">
         <v>2</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>99</v>
-      </c>
       <c r="G7" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="25"/>
@@ -3599,22 +3564,22 @@
         <v>31</v>
       </c>
       <c r="C8" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>102</v>
       </c>
       <c r="F8" s="36">
         <v>846</v>
       </c>
       <c r="G8" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>103</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>104</v>
       </c>
       <c r="I8" s="25"/>
     </row>
@@ -3626,19 +3591,19 @@
         <v>32</v>
       </c>
       <c r="C9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>109</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="25"/>
@@ -3648,22 +3613,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>114</v>
-      </c>
       <c r="G10" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="25"/>
@@ -3673,22 +3638,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="33">
         <v>17</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="G11" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="25"/>
@@ -3698,22 +3663,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>121</v>
-      </c>
       <c r="G12" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="25"/>
@@ -3726,19 +3691,19 @@
         <v>34</v>
       </c>
       <c r="C13" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="E13" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="F13" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>125</v>
-      </c>
       <c r="G13" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="25"/>
@@ -3749,13 +3714,13 @@
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="25"/>
@@ -3765,22 +3730,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>129</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="25"/>
@@ -3790,22 +3755,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="E16" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>134</v>
-      </c>
       <c r="G16" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="25"/>
@@ -3815,25 +3780,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>138</v>
-      </c>
       <c r="G17" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I17" s="25"/>
     </row>
@@ -3842,22 +3807,22 @@
         <v>12</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="33">
         <v>75</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="G18" s="35" t="s">
         <v>141</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>142</v>
       </c>
       <c r="H18" s="35"/>
       <c r="I18" s="25"/>
@@ -3867,22 +3832,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="33">
         <v>76</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="25"/>
@@ -3892,22 +3857,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="33">
         <v>77</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="25"/>
@@ -3917,22 +3882,22 @@
         <v>15</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="33">
         <v>78</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>148</v>
-      </c>
       <c r="G21" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="25"/>
@@ -3942,25 +3907,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="D22" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="F22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>121</v>
-      </c>
       <c r="G22" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I22" s="25"/>
     </row>
@@ -3969,22 +3934,22 @@
         <v>17</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="D23" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="E23" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="F23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>156</v>
-      </c>
       <c r="G23" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="25"/>
@@ -3994,22 +3959,22 @@
         <v>18</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>159</v>
-      </c>
       <c r="E24" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="25"/>
@@ -4019,22 +3984,22 @@
         <v>19</v>
       </c>
       <c r="B25" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="D25" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="35" t="s">
+      <c r="F25" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>163</v>
-      </c>
       <c r="G25" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H25" s="35"/>
       <c r="I25" s="25"/>
@@ -4044,22 +4009,22 @@
         <v>20</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H26" s="35"/>
       <c r="I26" s="25"/>
@@ -4110,7 +4075,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -4123,28 +4088,28 @@
     </row>
     <row r="32" spans="1:9" ht="64.2">
       <c r="A32" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="E32" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="F32" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="G32" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="H32" s="32" t="s">
         <v>90</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="I32" s="25"/>
     </row>
@@ -4153,16 +4118,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="41">
         <v>1</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F33" s="41">
         <v>2</v>
@@ -4184,16 +4149,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34" s="43"/>
       <c r="I34" s="25"/>
@@ -4206,19 +4171,19 @@
         <v>31</v>
       </c>
       <c r="C35" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="41" t="s">
-        <v>101</v>
-      </c>
       <c r="E35" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" s="41">
         <v>846</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="25"/>
@@ -4228,22 +4193,22 @@
         <v>4</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>106</v>
-      </c>
       <c r="E36" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="25"/>
@@ -4253,22 +4218,22 @@
         <v>5</v>
       </c>
       <c r="B37" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="D37" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="41" t="s">
-        <v>112</v>
-      </c>
       <c r="E37" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="25"/>
@@ -4278,22 +4243,22 @@
         <v>6</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H38" s="43"/>
       <c r="I38" s="25"/>
@@ -4303,22 +4268,22 @@
         <v>7</v>
       </c>
       <c r="B39" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="D39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="41" t="s">
-        <v>175</v>
-      </c>
       <c r="G39" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="43"/>
       <c r="I39" s="25"/>
@@ -4328,22 +4293,22 @@
         <v>8</v>
       </c>
       <c r="B40" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="D40" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="E40" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="F40" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="41" t="s">
-        <v>180</v>
-      </c>
       <c r="G40" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="25"/>
@@ -4353,22 +4318,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="41" t="s">
-        <v>182</v>
-      </c>
       <c r="E41" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H41" s="43"/>
       <c r="I41" s="25"/>
@@ -4378,16 +4343,16 @@
         <v>10</v>
       </c>
       <c r="B42" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="D42" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="42" t="s">
         <v>184</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>185</v>
       </c>
       <c r="F42" s="41">
         <v>0</v>
@@ -4405,16 +4370,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>187</v>
-      </c>
       <c r="D43" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F43" s="41">
         <v>0</v>
@@ -4432,22 +4397,22 @@
         <v>12</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>189</v>
-      </c>
       <c r="E44" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H44" s="43"/>
       <c r="I44" s="25"/>
